--- a/data_craw/quarter/balance_sheet_quarter/vcb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/vcb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12321593000000</v>
+        <v>11526350000000</v>
       </c>
       <c r="C4" t="n">
-        <v>13778357000000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13051765000000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11863544000000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11526350000000</v>
-      </c>
-      <c r="G4" t="n">
         <v>15095394000000</v>
       </c>
-      <c r="H4" t="n">
-        <v>12277634000000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13122285000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13356519000000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18011766000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14868054000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15097807000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16293080000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18348519000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15537950000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16134106000000</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +646,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32427277000000</v>
+        <v>24743965000000</v>
       </c>
       <c r="C7" t="n">
-        <v>34684091000000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16569663000000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>72917405000000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24743965000000</v>
-      </c>
-      <c r="G7" t="n">
         <v>33139373000000</v>
       </c>
-      <c r="H7" t="n">
-        <v>24008360000000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23485760000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60969106000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>22506711000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>38888399000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>28813961000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>16293080000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>92557809000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>139256635000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>56430924000000</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +742,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216739273000000</v>
+        <v>174497813000000</v>
       </c>
       <c r="C11" t="n">
-        <v>249729494000000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>176540624000000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>149653058000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>174497813000000</v>
-      </c>
-      <c r="G11" t="n">
         <v>267774393000000</v>
       </c>
-      <c r="H11" t="n">
-        <v>203604117000000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>184869194000000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>204916285000000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>225394684000000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>194999348000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>255548453000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>302927159000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>313591813000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>334747844000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>286406768000000</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +769,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>169161049000000</v>
+        <v>149619503000000</v>
       </c>
       <c r="C12" t="n">
-        <v>189359451000000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>124434685000000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>127712223000000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>149619503000000</v>
-      </c>
-      <c r="G12" t="n">
         <v>204518531000000</v>
       </c>
-      <c r="H12" t="n">
-        <v>167652939000000</v>
-      </c>
-      <c r="I12" t="n">
-        <v>163577251000000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>166228757000000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>180894919000000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>156548126000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>206466934000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>254958471000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>283682088000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>324773255000000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>266930956000000</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,53 +796,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48578224000000</v>
+        <v>25878310000000</v>
       </c>
       <c r="C13" t="n">
-        <v>62370043000000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53105939000000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>22940835000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25878310000000</v>
-      </c>
-      <c r="G13" t="n">
         <v>64255862000000</v>
       </c>
-      <c r="H13" t="n">
-        <v>36951178000000</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22291943000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v>39687528000000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>48499765000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>39451222000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>50081519000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>48968688000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>40749725000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>15695589000000</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>20475812000000</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1078,53 +938,25 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>-1000000</v>
+      </c>
+      <c r="C19" t="n">
         <v>-1000000000000</v>
       </c>
-      <c r="C19" t="n">
-        <v>-3000000000000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1000000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-4000000000000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-1000000000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-10840000000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-5721000000000</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-1000000000000</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1133,53 +965,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3454865000000</v>
+        <v>2250624000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1801146000000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4119276000000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3646956000000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2250624000000</v>
-      </c>
-      <c r="G20" t="n">
         <v>1954061000000</v>
       </c>
-      <c r="H20" t="n">
-        <v>3866240000000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3182256000000</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3583497000000</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2766098000000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3297566000000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3150052000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1347762000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1499687000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1595430000000</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1375964000000</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1188,53 +992,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3531164000000</v>
+        <v>2304262000000</v>
       </c>
       <c r="C21" t="n">
-        <v>1889628000000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4251400000000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3732154000000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2304262000000</v>
-      </c>
-      <c r="G21" t="n">
         <v>1991861000000</v>
       </c>
-      <c r="H21" t="n">
-        <v>3906378000000</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3221327000000</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3621712000000</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2822531000000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3372631000000</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3187225000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1407066000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1543575000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1618113000000</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1394711000000</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1243,53 +1019,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-76299000000</v>
+        <v>-53638000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-88482000000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-132124000000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-85198000000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-53638000000</v>
-      </c>
-      <c r="G22" t="n">
         <v>-37800000000</v>
       </c>
-      <c r="H22" t="n">
-        <v>-40138000000</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-39071000000</v>
-      </c>
-      <c r="J22" t="n">
-        <v>-38215000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-56433000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-75065000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-37173000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-59304000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-43888000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-22683000000</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-18747000000</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1297,36 +1045,22 @@
           <t>V.Tài sản ngắn hạn khác</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>89200000000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>98312000000</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>259485000000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>303202000000</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>156515000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>224625000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>217428000000</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1473,53 +1207,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2500312000000</v>
+        <v>2347260000000</v>
       </c>
       <c r="C30" t="n">
-        <v>2464493000000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2487109000000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2238788000000</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2347260000000</v>
-      </c>
-      <c r="G30" t="n">
         <v>2235538000000</v>
       </c>
-      <c r="H30" t="n">
-        <v>2261397000000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2281134000000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2391940000000</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2346176000000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2366013000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2380804000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2217065000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2193516000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2221085000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2248021000000</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1551,48 +1257,24 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>970251000000</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>962384000000</v>
-      </c>
-      <c r="E32" t="n">
-        <v>712707000000</v>
-      </c>
-      <c r="F32" t="n">
         <v>734715000000</v>
       </c>
-      <c r="G32" t="n">
+      <c r="C32" t="n">
         <v>711467000000</v>
       </c>
-      <c r="H32" t="n">
-        <v>736278000000</v>
-      </c>
-      <c r="I32" t="n">
-        <v>754888000000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>781363000000</v>
-      </c>
-      <c r="K32" t="n">
-        <v>748895000000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>769437000000</v>
-      </c>
-      <c r="M32" t="n">
-        <v>788086000000</v>
-      </c>
-      <c r="N32" t="n">
-        <v>753246000000</v>
-      </c>
-      <c r="O32" t="n">
-        <v>771057000000</v>
-      </c>
-      <c r="P32" t="n">
-        <v>797275000000</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1602,53 +1284,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9236000000</v>
+        <v>9419000000</v>
       </c>
       <c r="C33" t="n">
-        <v>940807000000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>11902000000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>13258000000</v>
-      </c>
-      <c r="F33" t="n">
-        <v>9419000000</v>
-      </c>
-      <c r="G33" t="n">
         <v>11248000000</v>
       </c>
-      <c r="H33" t="n">
-        <v>12296000000</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13423000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14252000000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10820000000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>11979000000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>8121000000</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9674000000</v>
-      </c>
-      <c r="O33" t="n">
-        <v>11313000000</v>
-      </c>
-      <c r="P33" t="n">
-        <v>12664000000</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>14196000000</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1657,53 +1311,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1587823000000</v>
+        <v>1678126000000</v>
       </c>
       <c r="C34" t="n">
         <v>1587823000000</v>
       </c>
-      <c r="D34" t="n">
-        <v>1587823000000</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1587823000000</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1678126000000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1587823000000</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1587823000000</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1587823000000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1671325000000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1661461000000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1659597000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1659597000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1529145000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1529145000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1529145000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1529145000000</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1758,53 +1384,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-66998000000</v>
+        <v>-75000000000</v>
       </c>
       <c r="C37" t="n">
         <v>-75000000000</v>
       </c>
-      <c r="D37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-75000000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-117999000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-117999000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-117999000000</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1813,53 +1411,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6322844000000</v>
+        <v>7030365000000</v>
       </c>
       <c r="C38" t="n">
-        <v>6695785000000</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6551316000000</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6723876000000</v>
-      </c>
-      <c r="F38" t="n">
-        <v>7030365000000</v>
-      </c>
-      <c r="G38" t="n">
         <v>8540358000000</v>
       </c>
-      <c r="H38" t="n">
-        <v>8333301000000</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8317891000000</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8177405000000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>8626043000000</v>
-      </c>
-      <c r="L38" t="n">
-        <v>8344847000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>8103519000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7820512000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>7985401000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>7732058000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>7598470000000</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1868,53 +1438,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4146505000000</v>
+        <v>4713049000000</v>
       </c>
       <c r="C39" t="n">
-        <v>4434514000000</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4285267000000</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4409846000000</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4713049000000</v>
-      </c>
-      <c r="G39" t="n">
         <v>5412135000000</v>
       </c>
-      <c r="H39" t="n">
-        <v>5292741000000</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5363219000000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5276646000000</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5552624000000</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5386077000000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5249947000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5060100000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>5170083000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5015683000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4918188000000</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1923,53 +1465,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1071152000000</v>
+        <v>12026277000000</v>
       </c>
       <c r="C40" t="n">
-        <v>11146104000000</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11176414000000</v>
-      </c>
-      <c r="E40" t="n">
-        <v>11485262000000</v>
-      </c>
-      <c r="F40" t="n">
-        <v>12026277000000</v>
-      </c>
-      <c r="G40" t="n">
         <v>12864742000000</v>
       </c>
-      <c r="H40" t="n">
-        <v>12930147000000</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13221132000000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13335075000000</v>
-      </c>
-      <c r="K40" t="n">
-        <v>13725160000000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>13748800000000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>13797299000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>13806057000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>13950173000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>14021442000000</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>14154402000000</v>
-      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1978,53 +1492,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6565018000000</v>
+        <v>-7313228000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-6711590000000</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-6891147000000</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-7075416000000</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-7313228000000</v>
-      </c>
-      <c r="G41" t="n">
         <v>-7452607000000</v>
       </c>
-      <c r="H41" t="n">
-        <v>-7637406000000</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-7857913000000</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-8058429000000</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-8172536000000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-8362723000000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-8547352000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-8745957000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-8780090000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-9005759000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-9236214000000</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2102,53 +1588,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2176339000000</v>
+        <v>2317316000000</v>
       </c>
       <c r="C45" t="n">
-        <v>2261271000000</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2266049000000</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2314030000000</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2317316000000</v>
-      </c>
-      <c r="G45" t="n">
         <v>3128223000000</v>
       </c>
-      <c r="H45" t="n">
-        <v>3040560000000</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2954672000000</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2900759000000</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3073419000000</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2958770000000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2853572000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2760412000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2815318000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2716375000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2680282000000</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2157,53 +1615,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2936192000000</v>
+        <v>3206724000000</v>
       </c>
       <c r="C46" t="n">
-        <v>3050668000000</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3080303000000</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3161694000000</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3206724000000</v>
-      </c>
-      <c r="G46" t="n">
         <v>4211880000000</v>
       </c>
-      <c r="H46" t="n">
-        <v>4211425000000</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4213943000000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4256512000000</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4622229000000</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4620978000000</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4617993000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4624053000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>4789089000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4791697000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4864567000000</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2212,53 +1642,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-759853000000</v>
+        <v>-889408000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-789397000000</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-814254000000</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-847664000000</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-889408000000</v>
-      </c>
-      <c r="G47" t="n">
         <v>-1083657000000</v>
       </c>
-      <c r="H47" t="n">
-        <v>-1170865000000</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-1259271000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-1355753000000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-1548810000000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-1662208000000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-1764421000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1863641000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1973771000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-2075322000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-2184285000000</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2405,53 +1807,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>20034561000000</v>
+        <v>24189798000000</v>
       </c>
       <c r="C54" t="n">
-        <v>23909398000000</v>
-      </c>
-      <c r="D54" t="n">
-        <v>20269427000000</v>
-      </c>
-      <c r="E54" t="n">
-        <v>20386537000000</v>
-      </c>
-      <c r="F54" t="n">
-        <v>24189798000000</v>
-      </c>
-      <c r="G54" t="n">
         <v>21446532000000</v>
       </c>
-      <c r="H54" t="n">
-        <v>24267237000000</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22569946000000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>24421565000000</v>
-      </c>
-      <c r="K54" t="n">
-        <v>29431813000000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>30322961000000</v>
-      </c>
-      <c r="M54" t="n">
-        <v>30898953000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>36489081000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>61396906000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>28402412000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>37008578000000</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2460,53 +1834,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9750429000000</v>
+        <v>8220432000000</v>
       </c>
       <c r="C55" t="n">
-        <v>11245771000000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9272066000000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>10770768000000</v>
-      </c>
-      <c r="F55" t="n">
-        <v>8220432000000</v>
-      </c>
-      <c r="G55" t="n">
         <v>9200890000000</v>
       </c>
-      <c r="H55" t="n">
-        <v>8546642000000</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10176777000000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11781220000000</v>
-      </c>
-      <c r="K55" t="n">
-        <v>16258514000000</v>
-      </c>
-      <c r="L55" t="n">
-        <v>18941095000000</v>
-      </c>
-      <c r="M55" t="n">
-        <v>18467522000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>24545840000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>24932725000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>15382146000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>24959159000000</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2515,53 +1861,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8352322000000</v>
+        <v>7931109000000</v>
       </c>
       <c r="C56" t="n">
-        <v>8150282000000</v>
-      </c>
-      <c r="D56" t="n">
-        <v>8572014000000</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6871821000000</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7931109000000</v>
-      </c>
-      <c r="G56" t="n">
         <v>7205739000000</v>
       </c>
-      <c r="H56" t="n">
-        <v>8421916000000</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6187719000000</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7019743000000</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7149695000000</v>
-      </c>
-      <c r="L56" t="n">
-        <v>8216704000000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>7156290000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>8044556000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>9209121000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>10053102000000</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>8954322000000</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2570,53 +1888,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5980000000</v>
+        <v>6048000000</v>
       </c>
       <c r="C57" t="n">
-        <v>5405000000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>408138000000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>406821000000</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6048000000</v>
-      </c>
-      <c r="G57" t="n">
         <v>7154000000</v>
       </c>
-      <c r="H57" t="n">
-        <v>909571000000</v>
-      </c>
-      <c r="I57" t="n">
-        <v>909211000000</v>
-      </c>
-      <c r="J57" t="n">
-        <v>909265000000</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7137000000</v>
-      </c>
-      <c r="L57" t="n">
-        <v>10798000000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7927000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5782000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>927450000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>953984000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>953110000000</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2624,50 +1914,24 @@
           <t>4. Dự phòng đầu tư tài chính dài hạn</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>1929349000000</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>4511734000000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2022882000000</v>
-      </c>
+        <v>5036638000000</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>5036638000000</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6393042000000</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5300259000000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4715357000000</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6020487000000</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3158305000000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5272656000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3898300000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>26331539000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2025613000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2154222000000</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2883,53 +2147,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1157490007000000</v>
+        <v>1188572083000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1223981046000000</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1144270262000000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1185262404000000</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1188572083000000</v>
-      </c>
-      <c r="G68" t="n">
         <v>1327537012000000</v>
       </c>
-      <c r="H68" t="n">
-        <v>1278965858000000</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1303633378000000</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1385235404000000</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1414765480000000</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1462748158000000</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1602391727000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1649664327000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1814188209000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1846431290000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1704273133000000</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2938,53 +2174,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>79127286000000</v>
+        <v>6050819000000</v>
       </c>
       <c r="C69" t="n">
-        <v>92365806000000</v>
-      </c>
-      <c r="D69" t="n">
-        <v>32453089000000</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10326096000000</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6050819000000</v>
-      </c>
-      <c r="G69" t="n">
         <v>41176995000000</v>
       </c>
-      <c r="H69" t="n">
-        <v>18538368000000</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9077476000000</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8709185000000</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9468116000000</v>
-      </c>
-      <c r="L69" t="n">
-        <v>36310440000000</v>
-      </c>
-      <c r="M69" t="n">
-        <v>61020549000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>93953298000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>67314816000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>62167768000000</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2270345000000</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3200,53 +2408,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>41331112000000</v>
+        <v>52329301000000</v>
       </c>
       <c r="C79" t="n">
-        <v>73621719000000</v>
-      </c>
-      <c r="D79" t="n">
-        <v>43642452000000</v>
-      </c>
-      <c r="E79" t="n">
-        <v>48404237000000</v>
-      </c>
-      <c r="F79" t="n">
-        <v>52329301000000</v>
-      </c>
-      <c r="G79" t="n">
         <v>103583833000000</v>
       </c>
-      <c r="H79" t="n">
-        <v>80758597000000</v>
-      </c>
-      <c r="I79" t="n">
-        <v>84188617000000</v>
-      </c>
-      <c r="J79" t="n">
-        <v>106138767000000</v>
-      </c>
-      <c r="K79" t="n">
-        <v>109757777000000</v>
-      </c>
-      <c r="L79" t="n">
-        <v>81277695000000</v>
-      </c>
-      <c r="M79" t="n">
-        <v>171676891000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>179758633000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>232510850000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>255334468000000</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>160661447000000</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3255,53 +2435,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>39520112000000</v>
+        <v>50569301000000</v>
       </c>
       <c r="C80" t="n">
-        <v>71051146000000</v>
-      </c>
-      <c r="D80" t="n">
-        <v>42548452000000</v>
-      </c>
-      <c r="E80" t="n">
-        <v>46551237000000</v>
-      </c>
-      <c r="F80" t="n">
-        <v>50569301000000</v>
-      </c>
-      <c r="G80" t="n">
         <v>100916433000000</v>
       </c>
-      <c r="H80" t="n">
-        <v>78270597000000</v>
-      </c>
-      <c r="I80" t="n">
-        <v>80671606000000</v>
-      </c>
-      <c r="J80" t="n">
-        <v>101596167000000</v>
-      </c>
-      <c r="K80" t="n">
-        <v>104043817000000</v>
-      </c>
-      <c r="L80" t="n">
-        <v>75589555000000</v>
-      </c>
-      <c r="M80" t="n">
-        <v>159084451000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>173006463000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>222040585000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>237183063000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>155314392000000</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3310,51 +2462,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1811000000000</v>
+        <v>1760000000000</v>
       </c>
       <c r="C81" t="n">
-        <v>2570573000000</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1094000000000</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1853000000000</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1760000000000</v>
-      </c>
-      <c r="G81" t="n">
         <v>2667400000000</v>
       </c>
-      <c r="H81" t="n">
-        <v>2488000000000</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3517011000000</v>
-      </c>
-      <c r="J81" t="n">
-        <v>4542600000000</v>
-      </c>
-      <c r="K81" t="n">
-        <v>5713960000000</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5688140000000</v>
-      </c>
-      <c r="M81" t="n">
-        <v>12592440000000</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="n">
-        <v>10470265000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>18151405000000</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>5347055000000</v>
-      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3409,53 +2535,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>902184481000000</v>
+        <v>981492077000000</v>
       </c>
       <c r="C84" t="n">
-        <v>928413676000000</v>
-      </c>
-      <c r="D84" t="n">
-        <v>934048243000000</v>
-      </c>
-      <c r="E84" t="n">
-        <v>981218388000000</v>
-      </c>
-      <c r="F84" t="n">
-        <v>981492077000000</v>
-      </c>
-      <c r="G84" t="n">
         <v>1032113567000000</v>
       </c>
-      <c r="H84" t="n">
-        <v>1025547607000000</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1051273660000000</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1108418876000000</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1135323913000000</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1179668881000000</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1195391576000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1197150901000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1243468472000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1281487916000000</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1326853836000000</v>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3670,37 +2768,23 @@
           <t>10. Cổ phiếu ưu đãi</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>365859000000</v>
-      </c>
-      <c r="E94" t="n">
-        <v>59126000000</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="B94" t="n">
         <v>33796000000</v>
       </c>
-      <c r="G94" t="n">
+      <c r="C94" t="n">
         <v>52031000000</v>
       </c>
-      <c r="H94" t="n">
-        <v>63982000000</v>
-      </c>
-      <c r="I94" t="n">
-        <v>30621000000</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>5215000000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>19457000000</v>
-      </c>
-      <c r="N94" t="n">
-        <v>120079000000</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -3781,53 +2865,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1076099113000000</v>
+        <v>1094996063000000</v>
       </c>
       <c r="C98" t="n">
-        <v>1138227698000000</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1059198276000000</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1095684373000000</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1094996063000000</v>
-      </c>
-      <c r="G98" t="n">
         <v>1228677618000000</v>
       </c>
-      <c r="H98" t="n">
-        <v>1177958179000000</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1198698174000000</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1275708552000000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1303594825000000</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1345670470000000</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1479402030000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1521274777000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1676199767000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>1701772932000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1552272005000000</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3864,45 +2920,19 @@
       <c r="C100" t="n">
         <v>37088774000000</v>
       </c>
-      <c r="D100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="E100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="F100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="H100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="I100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="J100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="K100" t="n">
-        <v>37088774000000</v>
-      </c>
-      <c r="L100" t="n">
-        <v>47325166000000</v>
-      </c>
-      <c r="M100" t="n">
-        <v>47325166000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>47325166000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>47325166000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>47325166000000</v>
-      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3970,9 +3000,7 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>4995389000000</v>
-      </c>
+      <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
     </row>
@@ -3988,46 +3016,20 @@
       <c r="C104" t="n">
         <v>4995389000000</v>
       </c>
-      <c r="D104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="E104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="H104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5995389000000</v>
-      </c>
-      <c r="M104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>4995389000000</v>
-      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
-      <c r="P104" t="n">
-        <v>4995389000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>4995389000000</v>
-      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4087,48 +3089,20 @@
       <c r="C107" t="n">
         <v>344657000000</v>
       </c>
-      <c r="D107" t="n">
-        <v>344657000000</v>
-      </c>
-      <c r="E107" t="n">
-        <v>344657000000</v>
-      </c>
-      <c r="F107" t="n">
-        <v>344657000000</v>
-      </c>
-      <c r="G107" t="n">
-        <v>344657000000</v>
-      </c>
-      <c r="H107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="I107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="J107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="K107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="L107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="M107" t="n">
-        <v>344658000000</v>
-      </c>
-      <c r="N107" t="n">
-        <v>809837000000</v>
-      </c>
-      <c r="O107" t="n">
-        <v>809837000000</v>
-      </c>
-      <c r="P107" t="n">
-        <v>809837000000</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>809837000000</v>
-      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4206,53 +3180,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9441199000000</v>
+        <v>12181294000000</v>
       </c>
       <c r="C111" t="n">
-        <v>9443008000000</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12186084000000</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12183712000000</v>
-      </c>
-      <c r="F111" t="n">
-        <v>12181294000000</v>
-      </c>
-      <c r="G111" t="n">
         <v>12204398000000</v>
       </c>
-      <c r="H111" t="n">
-        <v>14925755000000</v>
-      </c>
-      <c r="I111" t="n">
-        <v>14916935000000</v>
-      </c>
-      <c r="J111" t="n">
-        <v>14919178000000</v>
-      </c>
-      <c r="K111" t="n">
-        <v>14977015000000</v>
-      </c>
-      <c r="L111" t="n">
-        <v>18173014000000</v>
-      </c>
-      <c r="M111" t="n">
-        <v>18171942000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>18122983000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>18133039000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>22556829000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>22564054000000</v>
-      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4376,53 +3322,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>40434000000</v>
+        <v>26817000000</v>
       </c>
       <c r="C117" t="n">
-        <v>16840000000</v>
-      </c>
-      <c r="D117" t="n">
-        <v>18249000000</v>
-      </c>
-      <c r="E117" t="n">
-        <v>27265000000</v>
-      </c>
-      <c r="F117" t="n">
-        <v>26817000000</v>
-      </c>
-      <c r="G117" t="n">
         <v>22719000000</v>
       </c>
-      <c r="H117" t="n">
-        <v>10387000000</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1966000000</v>
-      </c>
-      <c r="J117" t="n">
-        <v>-4418000000</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-4809000000</v>
-      </c>
-      <c r="L117" t="n">
-        <v>-9856000000</v>
-      </c>
-      <c r="M117" t="n">
-        <v>-1782000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-741021000000</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-863071000000</v>
-      </c>
-      <c r="P117" t="n">
-        <v>-842553000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>-886284000000</v>
-      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4476,15 +3394,9 @@
           <t>TỔNG CỘNG NGUỒN VỐN</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>115899000000</v>
-      </c>
-      <c r="C120" t="n">
-        <v>113011000000</v>
-      </c>
-      <c r="D120" t="n">
-        <v>115528000000</v>
-      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
